--- a/input_data/abutments_fired/abutments_fired_unsh.xlsx
+++ b/input_data/abutments_fired/abutments_fired_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/abutments_fired/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/abutments_fired/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F7340-AC58-DE4D-A552-2A4C6428AECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97F059-8272-BD4B-A605-F5AE569137C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,127 +56,106 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
+    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
+  </si>
+  <si>
+    <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
+  </si>
+  <si>
+    <t>35600М Абатмент выжигаемый LM Mis Multi-Unit без позиционера</t>
+  </si>
+  <si>
+    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
+  </si>
+  <si>
+    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
+  </si>
+  <si>
+    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+  </si>
+  <si>
+    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35560М Абатмент выжигаемый LM Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) /</t>
+  </si>
+  <si>
+    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
+  </si>
+  <si>
+    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
+  </si>
+  <si>
+    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
+  </si>
+  <si>
+    <t>35528 Абатмент выжигаемый LM Xive 4.5 с позиционером</t>
+  </si>
+  <si>
+    <t>35527 Абатмент выжигаемый LM Xive 3.8 с позиционером</t>
+  </si>
+  <si>
+    <t>35526 Абатмент выжигаемый LM Xive 3.4 с позиционером</t>
+  </si>
+  <si>
+    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
+  </si>
+  <si>
+    <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
+  </si>
+  <si>
+    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
+  </si>
+  <si>
+    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
+  </si>
+  <si>
+    <t>35509 Абатмент выжигаемый LM MegaGen AnyRidge с позиционером</t>
+  </si>
+  <si>
+    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
+  </si>
+  <si>
+    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
+  </si>
+  <si>
     <t>35560V2 Абатмент выжигаемый LM Nobel Multi-Unit без позиционера</t>
-  </si>
-  <si>
-    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
-  </si>
-  <si>
-    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
-  </si>
-  <si>
-    <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
-  </si>
-  <si>
-    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
-  </si>
-  <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
-    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35578 Абатмент выжигаемый LM Neodent Grand Morse с позиционером</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35534уп Абатмент выжигаемый LM Implantium с позиционером / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>35534Муп Абатмент выжигаемый LM Implantium без позиционера / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
-  </si>
-  <si>
-    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
-  </si>
-  <si>
-    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35531М Абатмент выжигаемый LM BioHorizons 3.5 без позиционера</t>
-  </si>
-  <si>
-    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35532М Абатмент выжигаемый LM BioHorizons 4.5 без позиционера</t>
-  </si>
-  <si>
-    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
-  </si>
-  <si>
-    <t>35557М Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) без позиционера</t>
-  </si>
-  <si>
-    <t>35530 Абатмент выжигаемый LM BioHorizons 3.0 с позиционером</t>
-  </si>
-  <si>
-    <t>35532 Абатмент выжигаемый LM BioHorizons 4.5 с позиционером</t>
-  </si>
-  <si>
-    <t>35519М Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) без позиционера</t>
-  </si>
-  <si>
-    <t>35518М Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) без позиционера</t>
-  </si>
-  <si>
-    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
-    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
-  </si>
-  <si>
-    <t>35557 Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) с позиционером</t>
-  </si>
-  <si>
-    <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
-  </si>
-  <si>
-    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
-  </si>
-  <si>
-    <t>35554М Абатмент выжигаемый LM Anthogyr Axiom без позиционера</t>
-  </si>
-  <si>
-    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
-  </si>
-  <si>
-    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
-    <t>35554 Абатмент выжигаемый LM Anthogyr Axiom с позиционером</t>
-  </si>
-  <si>
-    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
   </si>
 </sst>
 </file>
@@ -285,6 +264,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -293,24 +290,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +633,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,41 +654,41 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
@@ -727,7 +706,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>778</v>
+        <v>399</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -735,375 +714,375 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>763</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
-        <v>250</v>
-      </c>
-      <c r="E7" s="17"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
+        <v>53</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>250</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
-        <v>73</v>
-      </c>
-      <c r="E8" s="17"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
-        <v>65</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
-        <v>50</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11">
         <v>27</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
-        <v>27</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
-        <v>26</v>
-      </c>
-      <c r="E13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
-        <v>24</v>
-      </c>
-      <c r="E14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
+        <v>17</v>
+      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17">
-        <v>30</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
-        <v>20</v>
-      </c>
-      <c r="E16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
-        <v>15</v>
-      </c>
-      <c r="E17" s="17"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17">
-        <v>11</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17">
-        <v>11</v>
-      </c>
-      <c r="E19" s="17"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
-        <v>15</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6">
-        <v>5</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17">
-        <v>10</v>
-      </c>
-      <c r="E21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17">
-        <v>10</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17">
-        <v>10</v>
-      </c>
-      <c r="E23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17">
-        <v>8</v>
-      </c>
-      <c r="E24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11">
         <v>6</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17">
-        <v>6</v>
-      </c>
-      <c r="E26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17">
-        <v>6</v>
-      </c>
-      <c r="E27" s="17"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17">
-        <v>6</v>
-      </c>
-      <c r="E28" s="17"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11">
+        <v>5</v>
+      </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
         <v>5</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
@@ -1111,15 +1090,15 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11">
         <v>5</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
@@ -1127,388 +1106,262 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17">
-        <v>5</v>
-      </c>
-      <c r="E31" s="17"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17">
-        <v>5</v>
-      </c>
-      <c r="E32" s="17"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17">
-        <v>5</v>
-      </c>
-      <c r="E33" s="17"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11">
+        <v>3</v>
+      </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17">
-        <v>5</v>
-      </c>
-      <c r="E34" s="17"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11">
+        <v>3</v>
+      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17">
-        <v>5</v>
-      </c>
-      <c r="E35" s="17"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11">
+        <v>2</v>
+      </c>
+      <c r="E35" s="11"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17">
-        <v>5</v>
-      </c>
-      <c r="E36" s="17"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17">
-        <v>5</v>
-      </c>
-      <c r="E37" s="17"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
+        <v>2</v>
+      </c>
+      <c r="E37" s="11"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17">
-        <v>4</v>
-      </c>
-      <c r="E38" s="17"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17">
-        <v>4</v>
-      </c>
-      <c r="E39" s="17"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17">
-        <v>4</v>
-      </c>
-      <c r="E40" s="17"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17">
-        <v>3</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17">
-        <v>2</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17">
-        <v>2</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17">
-        <v>2</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17">
-        <v>2</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17">
-        <v>1</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="18">
-        <v>778</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="8">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13">
+        <v>399</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8">
         <v>15</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="8">
-        <v>763</v>
+      <c r="G41" s="9"/>
+      <c r="H41" s="8">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
+  <mergeCells count="77">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/input_data/abutments_fired/abutments_fired_unsh.xlsx
+++ b/input_data/abutments_fired/abutments_fired_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/abutments_fired/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/abutments_fired/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97F059-8272-BD4B-A605-F5AE569137C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F9E366-DEF6-9944-B118-9F19113D777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,106 +56,91 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
+    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
+  </si>
+  <si>
     <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
   </si>
   <si>
+    <t>35560МOуп2 Абатмент выжигаемый LM LENMIRIOT Multi-Unit (отв. Osstem) без позиционера / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
   </si>
   <si>
-    <t>35600М Абатмент выжигаемый LM Mis Multi-Unit без позиционера</t>
-  </si>
-  <si>
-    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
-  </si>
-  <si>
     <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
   </si>
   <si>
     <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
+  </si>
+  <si>
+    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+  </si>
+  <si>
+    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
+  </si>
+  <si>
     <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
   </si>
   <si>
-    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
-  </si>
-  <si>
-    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35560М Абатмент выжигаемый LM Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) /</t>
-  </si>
-  <si>
-    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
-  </si>
-  <si>
     <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
   </si>
   <si>
     <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
   </si>
   <si>
-    <t>35528 Абатмент выжигаемый LM Xive 4.5 с позиционером</t>
-  </si>
-  <si>
-    <t>35527 Абатмент выжигаемый LM Xive 3.8 с позиционером</t>
-  </si>
-  <si>
-    <t>35526 Абатмент выжигаемый LM Xive 3.4 с позиционером</t>
-  </si>
-  <si>
-    <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
+    <t>35557 Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) с позиционером</t>
   </si>
   <si>
     <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
   </si>
   <si>
+    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
+  </si>
+  <si>
     <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
   </si>
   <si>
-    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
-  </si>
-  <si>
     <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
   </si>
   <si>
-    <t>35509 Абатмент выжигаемый LM MegaGen AnyRidge с позиционером</t>
-  </si>
-  <si>
-    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
     <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
-  </si>
-  <si>
-    <t>35560V2 Абатмент выжигаемый LM Nobel Multi-Unit без позиционера</t>
   </si>
 </sst>
 </file>
@@ -264,32 +249,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +618,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,41 +639,41 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
@@ -706,7 +691,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -714,19 +699,19 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17">
         <v>53</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
@@ -734,63 +719,63 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11">
-        <v>48</v>
-      </c>
-      <c r="E8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17">
+        <v>49</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
-        <v>30</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
         <v>27</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
@@ -798,15 +783,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17">
         <v>30</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="6">
         <v>10</v>
       </c>
@@ -815,48 +800,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>17</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11">
-        <v>17</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17">
+        <v>11</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17">
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
@@ -864,15 +849,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17">
         <v>11</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
@@ -880,49 +865,47 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11">
-        <v>15</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17">
         <v>10</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
@@ -930,79 +913,81 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
         <v>10</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11">
-        <v>8</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17">
+        <v>15</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17">
+        <v>9</v>
+      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11">
-        <v>6</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17">
+        <v>8</v>
+      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11">
-        <v>6</v>
-      </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
@@ -1010,47 +995,47 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-      <c r="E26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17">
+        <v>6</v>
+      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11">
-        <v>5</v>
-      </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
@@ -1058,15 +1043,15 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17">
         <v>5</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
@@ -1074,15 +1059,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17">
         <v>5</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
@@ -1090,31 +1075,31 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11">
-        <v>5</v>
-      </c>
-      <c r="E30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17">
+        <v>4</v>
+      </c>
+      <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17">
         <v>4</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
@@ -1122,31 +1107,31 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11">
-        <v>4</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17">
         <v>3</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
@@ -1154,214 +1139,124 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11">
-        <v>3</v>
-      </c>
-      <c r="E34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17">
+        <v>2</v>
+      </c>
+      <c r="E34" s="17"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11">
-        <v>2</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
-        <v>2</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11">
         <v>1</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11">
-        <v>1</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13">
-        <v>399</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="8">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="18">
+        <v>405</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="8">
         <v>15</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="8">
-        <v>384</v>
+      <c r="G36" s="9"/>
+      <c r="H36" s="8">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
+  <mergeCells count="67">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/input_data/abutments_fired/abutments_fired_unsh.xlsx
+++ b/input_data/abutments_fired/abutments_fired_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/abutments_fired/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/abutments_fired/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F9E366-DEF6-9944-B118-9F19113D777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CCB854-C6E2-CE4A-8B16-F5086A4AED8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,91 +56,85 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
+    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
+  </si>
+  <si>
+    <t>35511Муп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
   </si>
   <si>
-    <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
-  </si>
-  <si>
-    <t>35560МOуп2 Абатмент выжигаемый LM LENMIRIOT Multi-Unit (отв. Osstem) без позиционера / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
   </si>
   <si>
+    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
   </si>
   <si>
-    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
   </si>
   <si>
+    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
+  </si>
+  <si>
+    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+  </si>
+  <si>
+    <t>35905М Абатмент выжигаемый LM Implantium Multi-Unit 4.5 без позиционера</t>
+  </si>
+  <si>
     <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
   </si>
   <si>
-    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
-  </si>
-  <si>
-    <t>35552 Абатмент выжигаемый LM Conmet NP (2.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
-    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
+  </si>
+  <si>
+    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
   </si>
   <si>
     <t>35556М Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) без позиционера</t>
   </si>
   <si>
-    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
-  </si>
-  <si>
-    <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
+    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
+  </si>
+  <si>
+    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
+  </si>
+  <si>
+    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
+  </si>
+  <si>
+    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
   </si>
   <si>
     <t>35543 Абатмент выжигаемый LM Niko 4.5 с позиционером</t>
   </si>
   <si>
+    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
+  </si>
+  <si>
     <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
-  </si>
-  <si>
-    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
-  </si>
-  <si>
-    <t>35557 Абатмент выжигаемый LM Straumann Bone Level RC ( 4.1/4.8) с позиционером</t>
-  </si>
-  <si>
-    <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
-  </si>
-  <si>
-    <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
-  </si>
-  <si>
-    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
-  </si>
-  <si>
-    <t>35553 Абатмент выжигаемый LM Conmet RP (2.7) с позиционером</t>
-  </si>
-  <si>
-    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
-  </si>
-  <si>
-    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
   </si>
 </sst>
 </file>
@@ -618,7 +612,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +685,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -699,7 +693,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -709,45 +703,45 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -766,38 +760,38 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="6">
-        <v>10</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -848,20 +842,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -871,13 +867,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -896,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -912,38 +908,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="6">
-        <v>5</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -953,13 +947,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -969,13 +963,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -985,13 +979,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1001,29 +995,29 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1033,13 +1027,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1049,13 +1043,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1065,13 +1059,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1081,13 +1075,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1097,107 +1091,71 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17">
-        <v>2</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="18">
-        <v>405</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="8">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="18">
+        <v>380</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="8">
         <v>15</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="8">
-        <v>390</v>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
+  <mergeCells count="63">
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A31:C31"/>
